--- a/sprint-backlogs/Sprint1_backlog.xlsx
+++ b/sprint-backlogs/Sprint1_backlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Feature</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>To do</t>
   </si>
   <si>
     <t>Owner</t>
@@ -168,13 +162,265 @@
   </si>
   <si>
     <t>~7hr</t>
+  </si>
+  <si>
+    <t>xinyangg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be able to create a test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be able to create a quiz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instructor(course creator)</t>
+  </si>
+  <si>
+    <t>instructor(course creator)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>students can evaluate their performance in a course</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>students can evaluate their performance in a lecture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>student can answer a multiple choice question</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>student can answer a blank filled question</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be able to modify a quiz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The default number of choices is 4 and instuctors can add more choice and delete specific choice.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The default number of correct answer is 1 and instuctors can add more correct answers and delete specific correct answer.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be able to create a multiple choice question and mark the correct choice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2hr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be able to modify a test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5hr</t>
+  </si>
+  <si>
+    <t>Be able to modify a multiple choice question</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instructor can change description and choices after multiple choice question created</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The question type may not be changed. The description and choices of the question can be created, deleted and updated.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be able to modify a blank filled question</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instructor can change the description and answers after a blank filled questioncreated</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The question type may not be changed. The description and correct answers of the question can be created, deleted and updated.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instructor can change the title, description and weight as well as add or delete questions after a quiz is created.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instructor can change the title, description and weight as well as add or delete questions after a test is created.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be able to reorder the question</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instructor can change the order of the questions after created questions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be able to create a blank filled question and save the correct answer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mohanf</t>
+  </si>
+  <si>
+    <t>Be able to click button to create a course object</t>
+  </si>
+  <si>
+    <t>future creation and editing can be done related to the course</t>
+  </si>
+  <si>
+    <t>This is basic feature to allow all the other operations and this will be realized through a model form</t>
+  </si>
+  <si>
+    <t>Software Structure Organization</t>
+  </si>
+  <si>
+    <t>designer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spend time organizing the structure of my MVC framework and how to link each page and functionality about course creation part </t>
+  </si>
+  <si>
+    <t>complete future work more considerable and efficiently</t>
+  </si>
+  <si>
+    <t>3hr</t>
+  </si>
+  <si>
+    <t>This determines the whole structure of the course creation parts, including most of the functionalities</t>
+  </si>
+  <si>
+    <t>display the course creation page, which provides access to all the functionalities below, including adding or modifying course modules and materials</t>
+  </si>
+  <si>
+    <t>specific course content can be designed and added</t>
+  </si>
+  <si>
+    <t>3.5hr</t>
+  </si>
+  <si>
+    <t>This is basic feature to allow most of the course content editing functinality and this includes carelly rendering the course creation page to show necessary information and provide link to each functionality</t>
+  </si>
+  <si>
+    <t>user can change their initial input if they change their mind</t>
+  </si>
+  <si>
+    <t>This will be realized by model form, the display of the form will be realized by javascript</t>
+  </si>
+  <si>
+    <t>Be able to create a new lecture by clicking a button</t>
+  </si>
+  <si>
+    <t>learning materials can be added into the lecture</t>
+  </si>
+  <si>
+    <t>This will be realized by a model form and index and type needs carefully stored in model</t>
+  </si>
+  <si>
+    <t>This will be realized by a model form and the display of the form will be realized by javascipt</t>
+  </si>
+  <si>
+    <t>This will be realized by a model form, the module type and index needs to be carefully stored</t>
+  </si>
+  <si>
+    <t>Be able to create a reading material by clicking a button and upload file</t>
+  </si>
+  <si>
+    <t>enrolled user can get access to these material</t>
+  </si>
+  <si>
+    <t>Be able to click button to create a video object</t>
+  </si>
+  <si>
+    <t>Be able to make the course created published, by clicking a button</t>
+  </si>
+  <si>
+    <t>After publishing, students can get access to the course, no further change can be done after publishing</t>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>This feature is aimed to be implemented via JQuery.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be able to see my profile page with courses that I created</t>
+  </si>
+  <si>
+    <t>I can access to the page where I can modify the course content</t>
+  </si>
+  <si>
+    <t>This is part of the profile page, other content in the profile page will be implemented in next sprint</t>
+  </si>
+  <si>
+    <t>Be able to view and modify the course information by clicking a button</t>
+  </si>
+  <si>
+    <t>Be able to view and modify the lecture information by clicking a button</t>
+  </si>
+  <si>
+    <t>Be able to view and modify the reading information by clicking a button</t>
+  </si>
+  <si>
+    <t>Be able to view and modify the video information by clicking a button</t>
+  </si>
+  <si>
+    <t>Be able to delete a reading part</t>
+  </si>
+  <si>
+    <t>user can delete and remove the reading part he/she created</t>
+  </si>
+  <si>
+    <t>Be able to delete a video part</t>
+  </si>
+  <si>
+    <t>user can delete and remove the video part he/she created</t>
+  </si>
+  <si>
+    <t>Sprint Owner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,6 +440,35 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -219,10 +494,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -233,8 +512,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -510,301 +796,927 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
+    <col min="1" max="2" width="6.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
     <col min="4" max="10" width="36" style="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="23" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="33" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>15</v>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>